--- a/Beprimer Cesar.xlsx
+++ b/Beprimer Cesar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\WILLIAM\SD projects\Trading_BePrimer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMERCIAL3 INAL\Desktop\WILLIAM\SD projects\Trading_BePrimer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E650F269-3F71-40AD-A659-300C4C5563E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663BC8E-EC35-4B46-8F71-BA5A39A46238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{39E997FF-14DD-456E-9E32-700751140135}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39E997FF-14DD-456E-9E32-700751140135}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora " sheetId="1" r:id="rId1"/>
@@ -4398,7 +4398,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4454,7 +4454,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -16525,6 +16525,1744 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7BAA05E-41AD-4E5B-A6B0-7A6366812810}" name="dinamica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="K52:N59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de ESTADO" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F929648F-4964-4581-A6AF-18F7653464D2}" name="dinamica 9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="D100:E107" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de MINUTOS" fld="18" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F0541AC-66BF-4C80-A39E-80C26ED05D99}" name="dinamica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y52:Z59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Promedio de LOTAJE" fld="2" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8858460C-10E1-405C-A40E-5FCCBC566F9E}" name="dinmica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="R52:T59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma de RESULTADO" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Máx. de Capital" fld="12" subtotal="max" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9C1E7A9-0C36-4779-B2AB-62907E2C3868}" name="dinamica7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="D81:E91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item h="1" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de EMOCIÓN" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B04A077-66A3-48CD-823C-8C2720BA6F8F}" name="dinamica 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="Q9:R24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="368">
+        <item h="1" sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item h="1" x="367"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="16"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="247"/>
+    </i>
+    <i>
+      <x v="249"/>
+    </i>
+    <i>
+      <x v="260"/>
+    </i>
+    <i>
+      <x v="266"/>
+    </i>
+    <i>
+      <x v="268"/>
+    </i>
+    <i>
+      <x v="270"/>
+    </i>
+    <i>
+      <x v="275"/>
+    </i>
+    <i>
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="277"/>
+    </i>
+    <i>
+      <x v="278"/>
+    </i>
+    <i>
+      <x v="279"/>
+    </i>
+    <i>
+      <x v="280"/>
+    </i>
+    <i>
+      <x v="281"/>
+    </i>
+    <i>
+      <x v="312"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Máx. de Capital" fld="12" subtotal="max" baseField="16" baseItem="247"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AA12904-D344-4ED7-A0F3-F3ED0D18F3CA}" name="dinamica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="L81:M92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de EMOCIÓN" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="11">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A648E71-9234-4DE0-916B-2887D2600E97}" name="dinamica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="D53:E60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de ÍNDICE" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72052688-E05C-4BB9-87BF-2CC06680FCFD}" name="TablaDinámica18" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="H9:I24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
@@ -17065,1744 +18803,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7BAA05E-41AD-4E5B-A6B0-7A6366812810}" name="dinamica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="K52:N59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de ESTADO" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F0541AC-66BF-4C80-A39E-80C26ED05D99}" name="dinamica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y52:Z59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Promedio de LOTAJE" fld="2" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B04A077-66A3-48CD-823C-8C2720BA6F8F}" name="dinamica 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="Q9:R24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="368">
-        <item h="1" sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item h="1" x="367"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="16"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="247"/>
-    </i>
-    <i>
-      <x v="249"/>
-    </i>
-    <i>
-      <x v="260"/>
-    </i>
-    <i>
-      <x v="266"/>
-    </i>
-    <i>
-      <x v="268"/>
-    </i>
-    <i>
-      <x v="270"/>
-    </i>
-    <i>
-      <x v="275"/>
-    </i>
-    <i>
-      <x v="276"/>
-    </i>
-    <i>
-      <x v="277"/>
-    </i>
-    <i>
-      <x v="278"/>
-    </i>
-    <i>
-      <x v="279"/>
-    </i>
-    <i>
-      <x v="280"/>
-    </i>
-    <i>
-      <x v="281"/>
-    </i>
-    <i>
-      <x v="312"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Máx. de Capital" fld="12" subtotal="max" baseField="16" baseItem="247"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AA12904-D344-4ED7-A0F3-F3ED0D18F3CA}" name="dinamica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="L81:M92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de EMOCIÓN" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="11">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A648E71-9234-4DE0-916B-2887D2600E97}" name="dinamica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="D53:E60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de ÍNDICE" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F929648F-4964-4581-A6AF-18F7653464D2}" name="dinamica 9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="D100:E107" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de MINUTOS" fld="18" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8858460C-10E1-405C-A40E-5FCCBC566F9E}" name="dinmica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="R52:T59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Suma de RESULTADO" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Máx. de Capital" fld="12" subtotal="max" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9C1E7A9-0C36-4779-B2AB-62907E2C3868}" name="dinamica7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="D81:E91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de EMOCIÓN" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_MES" xr10:uid="{1987D055-147E-4A97-9885-9DCF47767ED7}" sourceName="MES">
   <pivotTables>
@@ -19202,27 +19202,28 @@
   <dimension ref="B4:U106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="1" max="2" width="4.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O5" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -19284,7 +19285,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>1</v>
       </c>
@@ -19349,7 +19350,7 @@
         <v>29.999999999999972</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>2</v>
       </c>
@@ -19414,7 +19415,7 @@
         <v>55.000000000000043</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>3</v>
       </c>
@@ -19479,7 +19480,7 @@
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>4</v>
       </c>
@@ -19544,7 +19545,7 @@
         <v>108.00000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>5</v>
       </c>
@@ -19609,7 +19610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>6</v>
       </c>
@@ -19674,7 +19675,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>7</v>
       </c>
@@ -19739,7 +19740,7 @@
         <v>41.000000000000014</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>8</v>
       </c>
@@ -19804,7 +19805,7 @@
         <v>32.000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>9</v>
       </c>
@@ -19869,7 +19870,7 @@
         <v>38.000000000000028</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>10</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>60.000000000000028</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>11</v>
       </c>
@@ -19993,7 +19994,7 @@
         <v>12.999999999999954</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>12</v>
       </c>
@@ -20052,7 +20053,7 @@
         <v>80.000000000000028</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>13</v>
       </c>
@@ -20099,7 +20100,7 @@
         <v>43.000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>14</v>
       </c>
@@ -20164,7 +20165,7 @@
         <v>30.000000000000014</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>15</v>
       </c>
@@ -20229,7 +20230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>16</v>
       </c>
@@ -20256,7 +20257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>17</v>
       </c>
@@ -20283,7 +20284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>18</v>
       </c>
@@ -20310,7 +20311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>19</v>
       </c>
@@ -20337,7 +20338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>20</v>
       </c>
@@ -20364,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>21</v>
       </c>
@@ -20391,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>22</v>
       </c>
@@ -20418,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>23</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>24</v>
       </c>
@@ -20472,7 +20473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>25</v>
       </c>
@@ -20499,7 +20500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>26</v>
       </c>
@@ -20526,7 +20527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>27</v>
       </c>
@@ -20553,7 +20554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>28</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>29</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>30</v>
       </c>
@@ -20634,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>31</v>
       </c>
@@ -20661,7 +20662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>32</v>
       </c>
@@ -20688,7 +20689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>33</v>
       </c>
@@ -20715,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>34</v>
       </c>
@@ -20742,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>35</v>
       </c>
@@ -20769,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>36</v>
       </c>
@@ -20796,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>37</v>
       </c>
@@ -20823,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>38</v>
       </c>
@@ -20850,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>39</v>
       </c>
@@ -20877,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>40</v>
       </c>
@@ -20904,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>41</v>
       </c>
@@ -20931,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>42</v>
       </c>
@@ -20958,7 +20959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>43</v>
       </c>
@@ -20985,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>44</v>
       </c>
@@ -21012,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>45</v>
       </c>
@@ -21039,7 +21040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>46</v>
       </c>
@@ -21066,7 +21067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>47</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>48</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>49</v>
       </c>
@@ -21147,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>50</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>51</v>
       </c>
@@ -21201,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>52</v>
       </c>
@@ -21228,7 +21229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>53</v>
       </c>
@@ -21255,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>54</v>
       </c>
@@ -21282,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>55</v>
       </c>
@@ -21309,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>56</v>
       </c>
@@ -21336,7 +21337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>57</v>
       </c>
@@ -21363,7 +21364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>58</v>
       </c>
@@ -21390,7 +21391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>59</v>
       </c>
@@ -21417,7 +21418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>60</v>
       </c>
@@ -21444,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>61</v>
       </c>
@@ -21471,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>62</v>
       </c>
@@ -21498,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>63</v>
       </c>
@@ -21525,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>64</v>
       </c>
@@ -21552,7 +21553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>65</v>
       </c>
@@ -21579,7 +21580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>66</v>
       </c>
@@ -21606,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B73" s="9">
         <v>67</v>
       </c>
@@ -21633,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B74" s="9">
         <v>68</v>
       </c>
@@ -21660,7 +21661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B75" s="9">
         <v>69</v>
       </c>
@@ -21687,7 +21688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B76" s="9">
         <v>70</v>
       </c>
@@ -21714,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B77" s="9">
         <v>71</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B78" s="9">
         <v>72</v>
       </c>
@@ -21768,7 +21769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B79" s="9">
         <v>73</v>
       </c>
@@ -21795,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B80" s="9">
         <v>74</v>
       </c>
@@ -21822,7 +21823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B81" s="9">
         <v>75</v>
       </c>
@@ -21849,7 +21850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B82" s="9">
         <v>76</v>
       </c>
@@ -21876,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B83" s="9">
         <v>77</v>
       </c>
@@ -21903,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B84" s="9">
         <v>78</v>
       </c>
@@ -21930,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B85" s="9">
         <v>79</v>
       </c>
@@ -21957,7 +21958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B86" s="9">
         <v>80</v>
       </c>
@@ -21984,7 +21985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B87" s="9">
         <v>81</v>
       </c>
@@ -22011,7 +22012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B88" s="9">
         <v>82</v>
       </c>
@@ -22038,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B89" s="9">
         <v>83</v>
       </c>
@@ -22065,7 +22066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B90" s="9">
         <v>84</v>
       </c>
@@ -22092,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B91" s="9">
         <v>85</v>
       </c>
@@ -22119,7 +22120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B92" s="9">
         <v>86</v>
       </c>
@@ -22146,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B93" s="9">
         <v>87</v>
       </c>
@@ -22173,7 +22174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B94" s="9">
         <v>88</v>
       </c>
@@ -22200,7 +22201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B95" s="9">
         <v>89</v>
       </c>
@@ -22227,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B96" s="9">
         <v>90</v>
       </c>
@@ -22254,7 +22255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B97" s="9">
         <v>91</v>
       </c>
@@ -22281,7 +22282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B98" s="9">
         <v>92</v>
       </c>
@@ -22308,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B99" s="9">
         <v>93</v>
       </c>
@@ -22335,7 +22336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B100" s="9">
         <v>94</v>
       </c>
@@ -22362,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B101" s="9">
         <v>95</v>
       </c>
@@ -22389,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B102" s="9">
         <v>96</v>
       </c>
@@ -22416,7 +22417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B103" s="9">
         <v>97</v>
       </c>
@@ -22443,7 +22444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B104" s="9">
         <v>98</v>
       </c>
@@ -22470,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B105" s="9">
         <v>99</v>
       </c>
@@ -22497,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B106" s="9">
         <v>100</v>
       </c>
@@ -22577,13 +22578,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -22600,7 +22601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
@@ -22617,7 +22618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
@@ -22634,7 +22635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
@@ -22651,7 +22652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -22665,7 +22666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
@@ -22676,7 +22677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -22687,7 +22688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
@@ -22695,7 +22696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
@@ -22703,7 +22704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -22711,7 +22712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
@@ -22719,7 +22720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -22727,7 +22728,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
@@ -22735,7 +22736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -22743,7 +22744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
@@ -22751,37 +22752,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>94</v>
       </c>
@@ -22799,30 +22800,30 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" customWidth="1"/>
+    <col min="25" max="25" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -22851,7 +22852,7 @@
       <c r="Z1" s="17"/>
       <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
@@ -22882,7 +22883,7 @@
       <c r="Z2" s="17"/>
       <c r="AA2" s="17"/>
     </row>
-    <row r="3" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
@@ -22911,7 +22912,7 @@
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -22940,7 +22941,7 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -22969,7 +22970,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -22998,7 +22999,7 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -23027,7 +23028,7 @@
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -23056,7 +23057,7 @@
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -23091,7 +23092,7 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -23126,7 +23127,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -23161,7 +23162,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -23196,7 +23197,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -23231,7 +23232,7 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -23266,7 +23267,7 @@
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -23301,7 +23302,7 @@
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -23336,7 +23337,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -23371,7 +23372,7 @@
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -23406,7 +23407,7 @@
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -23441,7 +23442,7 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -23476,7 +23477,7 @@
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -23511,7 +23512,7 @@
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -23546,7 +23547,7 @@
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -23581,7 +23582,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -23616,7 +23617,7 @@
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -23642,7 +23643,7 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -23668,7 +23669,7 @@
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -23694,7 +23695,7 @@
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -23723,7 +23724,7 @@
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -23752,7 +23753,7 @@
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -23781,7 +23782,7 @@
       <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -23810,7 +23811,7 @@
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -23839,7 +23840,7 @@
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -23868,7 +23869,7 @@
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -23897,7 +23898,7 @@
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -23926,7 +23927,7 @@
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -23955,7 +23956,7 @@
       <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -23984,7 +23985,7 @@
       <c r="Z37" s="17"/>
       <c r="AA37" s="17"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -24013,7 +24014,7 @@
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -24042,7 +24043,7 @@
       <c r="Z39" s="17"/>
       <c r="AA39" s="17"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -24071,7 +24072,7 @@
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -24100,7 +24101,7 @@
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -24129,7 +24130,7 @@
       <c r="Z42" s="17"/>
       <c r="AA42" s="17"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -24158,7 +24159,7 @@
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -24187,7 +24188,7 @@
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
     </row>
-    <row r="45" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18" t="s">
@@ -24218,7 +24219,7 @@
       <c r="Z45" s="17"/>
       <c r="AA45" s="17"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -24247,7 +24248,7 @@
       <c r="Z46" s="17"/>
       <c r="AA46" s="17"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -24276,7 +24277,7 @@
       <c r="Z47" s="17"/>
       <c r="AA47" s="17"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -24305,7 +24306,7 @@
       <c r="Z48" s="17"/>
       <c r="AA48" s="17"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -24334,7 +24335,7 @@
       <c r="Z49" s="17"/>
       <c r="AA49" s="17"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -24362,7 +24363,7 @@
       <c r="Z50" s="17"/>
       <c r="AA50" s="17"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -24391,7 +24392,7 @@
       <c r="Z51" s="17"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -24431,7 +24432,7 @@
       </c>
       <c r="AB52" s="17"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -24480,7 +24481,7 @@
       </c>
       <c r="AB53" s="17"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -24526,7 +24527,7 @@
       </c>
       <c r="AB54" s="17"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -24566,7 +24567,7 @@
       </c>
       <c r="AB55" s="17"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -24612,7 +24613,7 @@
       </c>
       <c r="AB56" s="17"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -24658,7 +24659,7 @@
       </c>
       <c r="AB57" s="17"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -24707,7 +24708,7 @@
       </c>
       <c r="AB58" s="17"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -24756,7 +24757,7 @@
       </c>
       <c r="AB59" s="17"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -24778,7 +24779,7 @@
       <c r="X60" s="17"/>
       <c r="AB60" s="17"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -24794,7 +24795,7 @@
       <c r="X61" s="17"/>
       <c r="AB61" s="17"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -24812,7 +24813,7 @@
       <c r="X62" s="17"/>
       <c r="AB62" s="17"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -24830,7 +24831,7 @@
       <c r="X63" s="17"/>
       <c r="AB63" s="17"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -24848,7 +24849,7 @@
       <c r="X64" s="17"/>
       <c r="AB64" s="17"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -24866,7 +24867,7 @@
       <c r="X65" s="17"/>
       <c r="AB65" s="17"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -24884,7 +24885,7 @@
       <c r="X66" s="17"/>
       <c r="AB66" s="17"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -24902,7 +24903,7 @@
       <c r="X67" s="17"/>
       <c r="AB67" s="17"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -24920,7 +24921,7 @@
       <c r="X68" s="17"/>
       <c r="AB68" s="17"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -24938,7 +24939,7 @@
       <c r="X69" s="17"/>
       <c r="AB69" s="17"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -24965,7 +24966,7 @@
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -24995,7 +24996,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -25025,7 +25026,7 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:28" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="18" t="s">
@@ -25056,7 +25057,7 @@
       <c r="Z73" s="17"/>
       <c r="AA73" s="17"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -25085,7 +25086,7 @@
       <c r="Z74" s="17"/>
       <c r="AA74" s="17"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -25114,7 +25115,7 @@
       <c r="Z75" s="17"/>
       <c r="AA75" s="17"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -25143,7 +25144,7 @@
       <c r="Z76" s="17"/>
       <c r="AA76" s="17"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -25172,7 +25173,7 @@
       <c r="Z77" s="17"/>
       <c r="AA77" s="17"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -25201,7 +25202,7 @@
       <c r="Z78" s="17"/>
       <c r="AA78" s="17"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -25230,7 +25231,7 @@
       <c r="Z79" s="17"/>
       <c r="AA79" s="17"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -25259,7 +25260,7 @@
       <c r="Z80" s="17"/>
       <c r="AA80" s="17"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -25294,7 +25295,7 @@
       <c r="Z81" s="17"/>
       <c r="AA81" s="17"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -25329,7 +25330,7 @@
       <c r="Z82" s="17"/>
       <c r="AA82" s="17"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -25364,7 +25365,7 @@
       <c r="Z83" s="17"/>
       <c r="AA83" s="17"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -25399,7 +25400,7 @@
       <c r="Z84" s="17"/>
       <c r="AA84" s="17"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -25434,7 +25435,7 @@
       <c r="Z85" s="17"/>
       <c r="AA85" s="17"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -25469,7 +25470,7 @@
       <c r="Z86" s="17"/>
       <c r="AA86" s="17"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -25504,7 +25505,7 @@
       <c r="Z87" s="17"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -25539,7 +25540,7 @@
       <c r="Z88" s="17"/>
       <c r="AA88" s="17"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -25574,7 +25575,7 @@
       <c r="Z89" s="17"/>
       <c r="AA89" s="17"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -25609,7 +25610,7 @@
       <c r="Z90" s="17"/>
       <c r="AA90" s="17"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -25644,7 +25645,7 @@
       <c r="Z91" s="17"/>
       <c r="AA91" s="17"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -25673,7 +25674,7 @@
       <c r="Z92" s="17"/>
       <c r="AA92" s="17"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -25696,7 +25697,7 @@
       <c r="Z93" s="17"/>
       <c r="AA93" s="17"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -25719,7 +25720,7 @@
       <c r="Z94" s="17"/>
       <c r="AA94" s="17"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -25742,7 +25743,7 @@
       <c r="Z95" s="17"/>
       <c r="AA95" s="17"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -25765,7 +25766,7 @@
       <c r="Z96" s="17"/>
       <c r="AA96" s="17"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -25788,7 +25789,7 @@
       <c r="Z97" s="17"/>
       <c r="AA97" s="17"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -25811,7 +25812,7 @@
       <c r="Z98" s="17"/>
       <c r="AA98" s="17"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -25834,7 +25835,7 @@
       <c r="Z99" s="17"/>
       <c r="AA99" s="17"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -25866,7 +25867,7 @@
       <c r="Z100" s="17"/>
       <c r="AA100" s="17"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -25898,7 +25899,7 @@
       <c r="Z101" s="17"/>
       <c r="AA101" s="17"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -25930,7 +25931,7 @@
       <c r="Z102" s="17"/>
       <c r="AA102" s="17"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -25962,7 +25963,7 @@
       <c r="Z103" s="17"/>
       <c r="AA103" s="17"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -25994,7 +25995,7 @@
       <c r="Z104" s="17"/>
       <c r="AA104" s="17"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -26026,7 +26027,7 @@
       <c r="Z105" s="17"/>
       <c r="AA105" s="17"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -26058,7 +26059,7 @@
       <c r="Z106" s="17"/>
       <c r="AA106" s="17"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -26090,7 +26091,7 @@
       <c r="Z107" s="17"/>
       <c r="AA107" s="17"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -26116,7 +26117,7 @@
       <c r="Z108" s="17"/>
       <c r="AA108" s="17"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -26142,7 +26143,7 @@
       <c r="Z109" s="17"/>
       <c r="AA109" s="17"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -26168,7 +26169,7 @@
       <c r="Z110" s="17"/>
       <c r="AA110" s="17"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -26194,7 +26195,7 @@
       <c r="Z111" s="17"/>
       <c r="AA111" s="17"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -26220,31 +26221,31 @@
       <c r="Z112" s="17"/>
       <c r="AA112" s="17"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C113" s="17"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C117" s="17"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
